--- a/datastatic/datasets/online/D_Eurostat_Recycling_of_e-waste-2012.xlsx
+++ b/datastatic/datasets/online/D_Eurostat_Recycling_of_e-waste-2012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Eurostat_Recycling_of_e-waste-2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Eurostat_Recycling_of_e-waste" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D_Eurostat_Recycling_of_e-waste-2012.xlsx
+++ b/datastatic/datasets/online/D_Eurostat_Recycling_of_e-waste-2012.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>original_title</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Greece</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Spain</t>
@@ -284,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -308,6 +311,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -349,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -390,6 +397,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -799,14 +809,19 @@
       <c r="A45" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="14">
+        <v>18.6</v>
+      </c>
       <c r="C45" s="13">
         <v>18.6</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="13">
         <v>26.1</v>
@@ -817,7 +832,7 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" s="13">
         <v>23.6</v>
@@ -828,21 +843,21 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="13">
@@ -851,7 +866,7 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" s="13">
         <v>27.8</v>
@@ -862,7 +877,7 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="13">
         <v>43.8</v>
@@ -873,7 +888,7 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" s="13">
         <v>29.3</v>
@@ -884,7 +899,7 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="13">
         <v>40.0</v>
@@ -895,7 +910,7 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="13">
         <v>11.0</v>
@@ -906,7 +921,7 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" s="13">
         <v>31.3</v>
@@ -917,7 +932,7 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="13">
         <v>37.6</v>
@@ -928,7 +943,7 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" s="13">
         <v>28.1</v>
@@ -939,7 +954,7 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" s="13">
         <v>32.3</v>
@@ -950,7 +965,7 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="13">
@@ -959,7 +974,7 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="13">
         <v>16.7</v>
@@ -970,7 +985,7 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="13">
         <v>41.7</v>
@@ -981,7 +996,7 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" s="13">
         <v>36.3</v>
@@ -992,7 +1007,7 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="13">
         <v>64.9</v>
@@ -1003,7 +1018,7 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="13">
         <v>22.8</v>
@@ -1014,14 +1029,14 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="13">
         <v>46.5</v>
@@ -1032,7 +1047,7 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>

--- a/datastatic/datasets/online/D_Eurostat_Recycling_of_e-waste-2012.xlsx
+++ b/datastatic/datasets/online/D_Eurostat_Recycling_of_e-waste-2012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Eurostat_Recycling_of_e-waste-2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Eurostat_Recycling_of_e-waste" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>original_title</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Greece</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Spain</t>
@@ -284,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -308,6 +311,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -349,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -390,6 +397,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -799,14 +809,19 @@
       <c r="A45" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="14">
+        <v>18.6</v>
+      </c>
       <c r="C45" s="13">
         <v>18.6</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="13">
         <v>26.1</v>
@@ -817,7 +832,7 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" s="13">
         <v>23.6</v>
@@ -828,21 +843,21 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="13">
@@ -851,7 +866,7 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" s="13">
         <v>27.8</v>
@@ -862,7 +877,7 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="13">
         <v>43.8</v>
@@ -873,7 +888,7 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" s="13">
         <v>29.3</v>
@@ -884,7 +899,7 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="13">
         <v>40.0</v>
@@ -895,7 +910,7 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="13">
         <v>11.0</v>
@@ -906,7 +921,7 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" s="13">
         <v>31.3</v>
@@ -917,7 +932,7 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="13">
         <v>37.6</v>
@@ -928,7 +943,7 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" s="13">
         <v>28.1</v>
@@ -939,7 +954,7 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" s="13">
         <v>32.3</v>
@@ -950,7 +965,7 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="13">
@@ -959,7 +974,7 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="13">
         <v>16.7</v>
@@ -970,7 +985,7 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="13">
         <v>41.7</v>
@@ -981,7 +996,7 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" s="13">
         <v>36.3</v>
@@ -992,7 +1007,7 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="13">
         <v>64.9</v>
@@ -1003,7 +1018,7 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="13">
         <v>22.8</v>
@@ -1014,14 +1029,14 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="13">
         <v>46.5</v>
@@ -1032,7 +1047,7 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
